--- a/biology/Botanique/Parc_de_Reynerie/Parc_de_Reynerie.xlsx
+++ b/biology/Botanique/Parc_de_Reynerie/Parc_de_Reynerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Reynerie est un jardin public à la française situé dans le quartier de la Reynerie à Toulouse.
-Le jardin fait l’objet d’un classement au titre des monuments historiques depuis le 13 août 1963[1].
+Le jardin fait l’objet d’un classement au titre des monuments historiques depuis le 13 août 1963.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé par Guillaume du Barry, féru de botanique entre 1781 et 1789, avec l’aide d’un paysagiste parisien.
-Classé en tant que monument historique en 1963, le parc devient la propriété de la ville de Toulouse en 1987. En 1997, l'ensemble des bâtiments subit des opérations de restauration. Le château lui-même est acheté par la ville de Toulouse en octobre 2008[2], pour devenir un lieu culturel complétant les installations du quartier.
+Classé en tant que monument historique en 1963, le parc devient la propriété de la ville de Toulouse en 1987. En 1997, l'ensemble des bâtiments subit des opérations de restauration. Le château lui-même est acheté par la ville de Toulouse en octobre 2008, pour devenir un lieu culturel complétant les installations du quartier.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se divise en deux terrasses : celle du haut, où se trouve le château et les communs comporte un parterre ainsi qu'un pigeonnier du XVIIe siècle. La terrasse basse est entièrement occupée par un parterre à la française avec une grande allée dans l'axe du château.
 Cette allée qui débute par un majestueux escalier avec des lions de pierre est recoupée par d'autres moins importantes. Au centre du jardin se trouve un grand bassin entouré de charmille. Le parc possède de très beaux arbres: des tilleuls, charmes, frênes, érables, chênes verts, savonniers, diospyros, celtis, pins de Corse, ginkgo.
@@ -582,7 +598,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Grande mauve
